--- a/biology/Zoologie/Eagris/Eagris.xlsx
+++ b/biology/Zoologie/Eagris/Eagris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eagris regroupe des papillons de la famille des Hesperiidae et de la sous-famille des Pyrginae présents en Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eagris est le nom donné par Achille Guénée  en 1862.
 Synonymes : Tricosemeia Holland, 1892;
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eagris decastigma Mabille, 1891; au Nigeria et au Kenya
 Eagris decastigma decastigma
@@ -559,7 +575,7 @@
 Eagris nottoana (Wallengren, 1857); dans tout l'est de l'Afrique.
 Eagris nottoana nottoana
 Eagris nottoana knysna Evans, 1946;
-Eagris nottoana smithii (Mabille, [1887]) à Madagascar.
+Eagris nottoana smithii (Mabille, ) à Madagascar.
 Eagris sabadius (Gray, 1832); au Malawi, Zimbabwe, Kenya et Ouganda.
 Eagris sabadius sabadius
 Eagris sabadius aldabranus Fryer, 1912;
